--- a/pred_ohlcv/54_21/2020-01-26 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 ETH ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>200.3464484448871</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>200.3464484448871</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>210.9637484448871</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>210.9637484448871</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>59.93032994207262</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>21.85722994207261</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>63.99892994207261</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>63.99892994207261</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>63.9877299420726</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>76.9478299420726</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>78.13101014430785</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>73.33591014430785</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>73.72881014430784</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>111.2698101443078</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>924.8058101443077</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>924.8058101443077</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>923.1990101443076</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>923.5200101443077</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>923.5200101443077</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>924.5200101443077</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>924.4200101443076</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>923.3169101443076</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>923.3704101443076</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>905.7703101443076</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>871.4373101443076</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>871.4373101443076</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>871.4373101443076</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>868.4162101443076</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>878.8323101443076</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>755.5375101443076</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>755.5000101443076</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1151.366126480362</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1147.360926480362</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1102.016426480362</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1074.217926480361</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-146.9021204017802</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-150.955118237278</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-103.3280349490141</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-107.2808723815923</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-79.55607238159232</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-79.85607238159231</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-76.84200584084756</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-77.84200584084756</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-108.3332058408476</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-112.0236058408476</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-123.9736058408476</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-276.1384058408476</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-275.1384058408476</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-280.2351058408476</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-280.2351058408476</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-219.2608058408476</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-217.3582058408475</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-329.6029058408475</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-335.6994058408475</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-321.5990058408476</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-251.4684058408475</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-263.8884058408476</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-110.7276963835666</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-107.9068963835666</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-113.2650963835666</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-163.0417963835666</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-162.2697963835666</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-170.3284963835666</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-169.5723963835666</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>299.8165036164334</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>297.9845036164334</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>297.8295036164334</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>292.7245036164334</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>101.8378036164334</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>227.3644944822952</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>286.029492138129</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>286.029492138129</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>285.988692138129</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>285.977492138129</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>285.977492138129</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>354.6021921381291</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>343.620792138129</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>346.060792138129</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>338.025092138129</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>326.114292138129</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>336.941292138129</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>227.991992138129</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>227.991992138129</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>243.023492138129</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>252.393692138129</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>252.1525921381291</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>246.3651921381291</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>246.3651921381291</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>261.365192138129</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>261.365192138129</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>260.134992138129</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>244.998292138129</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>244.998292138129</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>243.998292138129</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>245.201892138129</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>245.201892138129</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>323.1147243961936</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>331.2856243961936</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>300.4028243961936</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>303.4028243961936</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>303.2629243961936</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>303.2029243961936</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>303.0969243961936</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>302.4588243961936</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>351.5325243961936</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>348.6005243961936</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>366.2784243961936</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>349.4809243961936</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>349.4809243961936</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 ETH ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>200.3464484448871</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>200.3464484448871</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>210.9637484448871</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>210.9637484448871</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>59.93032994207262</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>21.85722994207261</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>63.99892994207261</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>63.99892994207261</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>63.9877299420726</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>76.9478299420726</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>78.13101014430785</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>73.33591014430785</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>73.72881014430784</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>111.2698101443078</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1029.381310144308</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1082.324910144308</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1082.324910144308</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1090.060510144308</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1109.819410144308</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1145.828810144308</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>924.8058101443077</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>924.8058101443077</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>923.1990101443076</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>923.5200101443077</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>923.5200101443077</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>924.5200101443077</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>924.4200101443076</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>923.3169101443076</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>923.3704101443076</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>905.7703101443076</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>871.4373101443076</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>871.4373101443076</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1159.981226480362</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1151.366126480362</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1147.360926480362</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1102.016426480362</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-146.9021204017802</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-150.955118237278</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-103.3280349490141</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-107.2808723815923</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-79.55607238159232</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-79.85607238159231</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-79.17307238159231</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-78.91910584084756</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-76.84200584084756</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-77.84200584084756</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-108.3332058408476</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-107.9236058408476</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-112.0236058408476</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-123.9736058408476</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-276.1384058408476</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-275.1384058408476</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-280.2351058408476</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-219.2608058408476</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-219.2608058408476</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-217.3582058408475</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-274.7943058408475</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-322.3119058408475</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-322.3119058408475</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-322.8643058408475</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-329.6029058408475</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-335.6994058408475</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-321.5990058408476</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-251.4684058408475</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-271.7284058408475</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-263.8884058408476</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-263.8884058408476</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-263.9918058408476</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-262.5089058408476</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-192.8582963835666</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-192.9901963835666</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-147.0125963835666</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-141.0266963835666</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-142.8726963835666</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-110.7276963835666</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-110.9276963835666</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-99.57909638356658</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-99.59779638356657</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-105.3847963835666</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-91.97739638356659</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-93.93239638356658</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-93.93239638356658</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-99.03969638356658</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-107.9068963835666</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-113.2650963835666</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-163.0417963835666</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-162.2697963835666</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-162.0900963835666</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-170.3284963835666</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-169.5723963835666</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-262.6220963835666</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-259.6086963835666</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>299.8165036164334</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>299.8165036164334</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>297.9845036164334</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>297.8295036164334</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>292.7245036164334</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>101.8378036164334</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>227.3644944822952</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>235.5119944822952</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>286.029492138129</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>286.029492138129</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>285.988692138129</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>285.977492138129</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>285.977492138129</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>354.6021921381291</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>343.620792138129</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>346.060792138129</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>338.025092138129</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>326.114292138129</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>339.114292138129</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>336.941292138129</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>227.991992138129</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>227.991992138129</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>243.023492138129</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>252.393692138129</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>252.1525921381291</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>246.3651921381291</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>246.3651921381291</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>261.365192138129</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>261.365192138129</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>260.134992138129</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>244.998292138129</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>244.998292138129</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>243.998292138129</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>245.201892138129</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>245.201892138129</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>323.1147243961936</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>331.1147243961936</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>331.2856243961936</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>300.4028243961936</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>303.4028243961936</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>303.2629243961936</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>303.2029243961936</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>303.0969243961936</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>302.4588243961936</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>351.5325243961936</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>348.6005243961936</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>366.2784243961936</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>349.4809243961936</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>349.4809243961936</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
